--- a/data-raw/ddeco literature/Validierung_ddeco.xlsx
+++ b/data-raw/ddeco literature/Validierung_ddeco.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>Validierung</t>
   </si>
@@ -265,39 +265,6 @@
   </si>
   <si>
     <t>Alles weit daneben!</t>
-  </si>
-  <si>
-    <t>Fragen:</t>
-  </si>
-  <si>
-    <t>Abweichungen imme relativ anschauen?</t>
-  </si>
-  <si>
-    <t>Welches Paper ist für finale Validierung zentral?</t>
-  </si>
-  <si>
-    <t>Wo können weitere Fehler/Abweichungen entstehen?</t>
-  </si>
-  <si>
-    <t>Es fehlt T4 und SE in FFL 2018</t>
-  </si>
-  <si>
-    <t>Quantile</t>
-  </si>
-  <si>
-    <t>Bei Gewichtung → Quantilwebsite anschauen. ev. Quantilsberechnung anpassen</t>
-  </si>
-  <si>
-    <t>Modell</t>
-  </si>
-  <si>
-    <t>UV → alle in Modell</t>
-  </si>
-  <si>
-    <t>AV -richtig</t>
-  </si>
-  <si>
-    <t>Variance sollte gleich sein! Gewichte, Sample, oder Modelle</t>
   </si>
 </sst>
 </file>
@@ -805,9 +772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -1353,62 +1322,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="B88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="B89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="B91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="B92" t="s">
-        <v>92</v>
-      </c>
+      <c r="A79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
